--- a/results/I3_N5_M2_T30_C150_DepCentral_s3_P3_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepCentral_s3_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>461.6407969774098</v>
+        <v>1571.518995610193</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.33079697741608</v>
+        <v>19.85485207586932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.955934559232491</v>
+        <v>13.29756500142714</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.955934559232491</v>
+        <v>4.961708535750589</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>219.2199999999937</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217.09</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,12 +595,45 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
       </c>
       <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -645,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -769,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -780,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -791,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -802,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -824,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -874,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>15.79579898937523</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.10555953090583</v>
+        <v>12.69023945846941</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.612049279841017</v>
+        <v>23.61797899241786</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.33301651610694</v>
+        <v>10.33301651610693</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.27634796193495</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.99539592898705</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -982,15 +1015,169 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1093,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>89.2699999999995</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1104,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>81.12499999999949</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
@@ -1115,7 +1302,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>86.985</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -1126,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>78.56999999999948</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1137,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>83.56499999999949</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
@@ -1148,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>174.9599999999993</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -1159,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>177.9849999999993</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -1170,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>168.1149999999998</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -1181,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>168.4449999999993</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -1192,7 +1379,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>170.1049999999993</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -1203,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>35.25999999999986</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -1214,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>27.32499999999985</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19">
@@ -1225,7 +1412,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>30.18999999999986</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20">
@@ -1236,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>25.3</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21">
@@ -1247,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>28.38999999999985</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
@@ -1258,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>67.32000000000029</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1269,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>76.2050000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1280,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>81.1900000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1291,7 +1478,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.59000000000029</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1302,7 +1489,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>74.58500000000029</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1313,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>113.295000000001</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1324,7 +1511,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>121.65</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1335,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>123.55</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1346,7 +1533,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>125.910000000001</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1357,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>126.085000000001</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1368,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>113.295000000001</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33">
@@ -1379,7 +1566,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>121.65</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
@@ -1390,7 +1577,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>123.55</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
@@ -1401,7 +1588,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>125.910000000001</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36">
@@ -1412,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>126.085000000001</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37">
@@ -1423,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>174.9599999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1434,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>177.9849999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1445,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>168.1149999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1456,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>168.4449999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1467,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>170.1049999999993</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
@@ -1525,7 +1712,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4">
@@ -1536,7 +1723,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
@@ -1547,7 +1734,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
@@ -1558,7 +1745,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7">
@@ -1569,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>24.95999999999927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1580,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>27.98499999999927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1591,7 +1778,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>18.11499999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1602,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>18.44499999999925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1613,7 +1800,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>20.10499999999928</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1660,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1671,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1682,7 +1869,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1693,7 +1880,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1704,7 +1891,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1715,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1726,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1737,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1748,7 +1935,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1759,7 +1946,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1770,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>10.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1781,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1792,7 +1979,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>12.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1803,7 +1990,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>12.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1814,7 +2001,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>12.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1825,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1836,7 +2023,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +2034,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1858,7 +2045,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1869,7 +2056,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1880,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1891,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1902,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1913,7 +2100,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1924,7 +2111,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +2125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1965,7 +2152,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1976,7 +2163,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -1987,7 +2174,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -1998,7 +2185,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2009,12 +2196,100 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
         <v>1</v>
       </c>
     </row>
